--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T15:41:03+00:00</t>
+    <t>2021-10-21T18:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>001</t>
   </si>
   <si>
     <t>Description</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T18:48:22+00:00</t>
+    <t>2021-10-27T18:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>001</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T18:21:42+00:00</t>
+    <t>2021-11-17T17:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T17:36:43+00:00</t>
+    <t>2021-12-17T22:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T22:04:03+00:00</t>
+    <t>2021-12-20T17:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T17:22:47+00:00</t>
+    <t>2021-12-20T17:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T17:36:36+00:00</t>
+    <t>2022-01-20T17:52:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T17:52:40+00:00</t>
+    <t>2022-01-20T19:02:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -213,7 +213,7 @@
     <t>T38.0X6A</t>
   </si>
   <si>
-    <t>Underdosing of glucocorticoids and synthetic analogues, initial encounter encounter</t>
+    <t>Underdosing of glucocorticoids and synthetic analogues, initial encounter</t>
   </si>
   <si>
     <t>T38.0X4D</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T19:02:29+00:00</t>
+    <t>2022-01-24T16:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T16:21:32+00:00</t>
+    <t>2022-01-29T01:27:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-29T01:27:19+00:00</t>
+    <t>2022-02-02T21:23:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T21:23:34+00:00</t>
+    <t>2022-02-04T01:37:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-04T01:37:16+00:00</t>
+    <t>2022-02-15T15:39:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-15T15:39:42+00:00</t>
+    <t>2022-02-16T22:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T22:34:03+00:00</t>
+    <t>2022-02-17T21:48:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T21:48:19+00:00</t>
+    <t>2022-02-18T00:07:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-18T00:07:46+00:00</t>
+    <t>2022-02-23T18:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T18:16:24+00:00</t>
+    <t>2022-02-28T19:02:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-28T19:02:13+00:00</t>
+    <t>2022-03-02T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T20:52:19+00:00</t>
+    <t>2022-03-16T16:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T16:50:23+00:00</t>
+    <t>2022-03-16T20:44:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-condition-risk-steroid-usage-icd10.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T20:44:25+00:00</t>
+    <t>2022-03-25T21:34:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
